--- a/seed/auditlogs.xlsx
+++ b/seed/auditlogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerburguillos/AIMS-Project/seed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC5E9C44-EB9A-E944-A721-E1B55BA9F57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8867FD7E-F990-2146-ACCA-EC94F7055800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00512542-1758-864E-8248-48E3B175D729}"/>
   </bookViews>
@@ -205,126 +205,6 @@
     <t>Enabled FileVault on Surface Laptop 5</t>
   </si>
   <si>
-    <t>2025-10-02T09:10:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-02T09:12:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-02T09:13:30Z</t>
-  </si>
-  <si>
-    <t>2025-10-03T11:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-04T13:30:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-05T08:20:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-05T08:25:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-06T10:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-06T10:05:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-07T09:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-07T09:05:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-07T09:10:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-08T09:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-08T09:05:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-09T14:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-10T10:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-10T10:05:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-11T16:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-11T16:05:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-12T09:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-12T09:10:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-13T09:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-13T09:10:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-14T13:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-15T09:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-15T09:05:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-15T09:06:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-16T09:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-16T09:05:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-16T09:06:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-17T08:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-17T08:05:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-17T08:10:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-17T08:15:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-18T09:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-19T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-19T12:05:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-20T09:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-21T09:02:00Z</t>
-  </si>
-  <si>
-    <t>2025-10-22T09:08:00Z</t>
-  </si>
-  <si>
     <t>104fb2de-fe76-42eb-a342-b36e97b06b96</t>
   </si>
   <si>
@@ -443,6 +323,126 @@
   </si>
   <si>
     <t>11822169-8f62-442c-9e84-2e4885d66d7b</t>
+  </si>
+  <si>
+    <t>2025-11-02T09:10:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-02T09:12:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-02T09:13:30Z</t>
+  </si>
+  <si>
+    <t>2025-11-03T11:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-04T13:30:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-05T08:20:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-05T08:25:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-06T10:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-06T10:05:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-07T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-07T09:05:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-07T09:10:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-08T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-08T09:05:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-09T14:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-10T10:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-10T10:05:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-11T16:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-11T16:05:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T09:10:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T09:10:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-14T13:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-15T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-15T09:05:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-15T09:06:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-16T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-16T09:05:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-16T09:06:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-17T08:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-17T08:05:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-17T08:10:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-17T08:15:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-18T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-19T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-19T12:05:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-20T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-21T09:02:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-22T09:08:00Z</t>
   </si>
 </sst>
 </file>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C0B563-98F8-4D43-8B21-3148D54F9E34}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -844,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
         <v>96</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -870,10 +870,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
         <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -896,10 +896,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
         <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -922,10 +922,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
         <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -948,10 +948,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
         <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -974,10 +974,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
         <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1000,10 +1000,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>102</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1026,10 +1026,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
         <v>103</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1052,10 +1052,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
         <v>104</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1078,10 +1078,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
         <v>105</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -1104,10 +1104,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
         <v>106</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -1130,10 +1130,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
         <v>107</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -1156,10 +1156,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
         <v>108</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -1182,10 +1182,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
         <v>109</v>
-      </c>
-      <c r="C15" t="s">
-        <v>69</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -1208,10 +1208,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
         <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>70</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -1234,10 +1234,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
         <v>111</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -1260,10 +1260,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
         <v>112</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -1286,10 +1286,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
         <v>113</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1312,10 +1312,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
         <v>114</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1338,10 +1338,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
         <v>115</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1364,10 +1364,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
         <v>116</v>
-      </c>
-      <c r="C22" t="s">
-        <v>76</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1390,10 +1390,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
         <v>117</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -1416,10 +1416,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
         <v>118</v>
-      </c>
-      <c r="C24" t="s">
-        <v>78</v>
       </c>
       <c r="D24">
         <v>10</v>
@@ -1442,10 +1442,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
         <v>119</v>
-      </c>
-      <c r="C25" t="s">
-        <v>79</v>
       </c>
       <c r="D25">
         <v>9</v>
@@ -1468,10 +1468,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
         <v>120</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
       </c>
       <c r="D26">
         <v>9</v>
@@ -1494,10 +1494,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
         <v>121</v>
-      </c>
-      <c r="C27" t="s">
-        <v>81</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -1520,10 +1520,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
         <v>122</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
       </c>
       <c r="D28">
         <v>9</v>
@@ -1546,10 +1546,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
         <v>123</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
       </c>
       <c r="D29">
         <v>10</v>
@@ -1572,10 +1572,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
         <v>124</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
       </c>
       <c r="D30">
         <v>10</v>
@@ -1598,10 +1598,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
         <v>125</v>
-      </c>
-      <c r="C31" t="s">
-        <v>85</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -1624,10 +1624,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
         <v>126</v>
-      </c>
-      <c r="C32" t="s">
-        <v>86</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1650,10 +1650,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
         <v>127</v>
-      </c>
-      <c r="C33" t="s">
-        <v>87</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1676,10 +1676,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
         <v>128</v>
-      </c>
-      <c r="C34" t="s">
-        <v>88</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1702,10 +1702,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
         <v>129</v>
-      </c>
-      <c r="C35" t="s">
-        <v>89</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -1728,10 +1728,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
         <v>130</v>
-      </c>
-      <c r="C36" t="s">
-        <v>90</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1754,10 +1754,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
         <v>131</v>
-      </c>
-      <c r="C37" t="s">
-        <v>91</v>
       </c>
       <c r="D37">
         <v>10</v>
@@ -1780,10 +1780,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
         <v>132</v>
-      </c>
-      <c r="C38" t="s">
-        <v>92</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -1806,10 +1806,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
         <v>133</v>
-      </c>
-      <c r="C39" t="s">
-        <v>93</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -1832,10 +1832,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
         <v>134</v>
-      </c>
-      <c r="C40" t="s">
-        <v>94</v>
       </c>
       <c r="D40">
         <v>9</v>
@@ -1858,10 +1858,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
         <v>135</v>
-      </c>
-      <c r="C41" t="s">
-        <v>95</v>
       </c>
       <c r="D41">
         <v>10</v>
